--- a/Running projects/Trifit T1 Karachi/R.A - Tri Fit HRV installation.xlsx
+++ b/Running projects/Trifit T1 Karachi/R.A - Tri Fit HRV installation.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Trifit T1 Karachi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62D208-1D70-4483-9933-77BA2C785F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet 1'!$A$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet 1'!$A$1:$I$36</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Dated:</t>
   </si>
@@ -79,6 +73,9 @@
     <t>TRI-FIT COM-1</t>
   </si>
   <si>
+    <t>National Engineering Services</t>
+  </si>
+  <si>
     <t>Sub-Contractor Margin:</t>
   </si>
   <si>
@@ -112,41 +109,47 @@
     <t xml:space="preserve"> 20x18=04</t>
   </si>
   <si>
-    <t>Supply &amp; installation of Volume Control Damper in 16 SWG G.I sheet metal with gas kits, nut bolts, complete in all respects ready to operate.size are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supply &amp; installation of Flexiable duct Connector </t>
-  </si>
-  <si>
     <t>Nos</t>
   </si>
   <si>
+    <t>Installtion of Heat Recovery ventilator (OFM Material)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> HRV Work </t>
   </si>
   <si>
-    <t>Supply &amp; installation of Hanging and Support including C-channel, brackets, threaded rods, anchor bolts &amp; rubber isolators.</t>
-  </si>
-  <si>
-    <t>Installation of Heat Recovery ventilator (OFM Material)</t>
-  </si>
-  <si>
-    <t>Regging Lifting And Shifting of HRV at desired location.</t>
-  </si>
-  <si>
-    <t>National Engineering Company</t>
+    <t>Regging Lifting And Shifting of HRV desired location.</t>
+  </si>
+  <si>
+    <t>Supply of Volume Control Damper in 16 SWG G.I sheet metal with gas kits, nut bolts, complete in all respects ready to operate.size are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply  of Flexiable duct Connector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation  of Flexiable duct Connector </t>
+  </si>
+  <si>
+    <t>Installation of Volume Control Damper in 16 SWG G.I sheet metal with gas kits, nut bolts, complete in all respects ready to operate.size are</t>
+  </si>
+  <si>
+    <t>LABOUR</t>
+  </si>
+  <si>
+    <t>Supply  of Hanging and Support/anchor bolt angle bracket with rubber isolator.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -299,19 +302,19 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,7 +323,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -333,9 +336,9 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,10 +350,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -365,29 +368,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,7 +400,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -408,24 +412,12 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -439,7 +431,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -454,22 +446,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Comma 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Comma 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 2 2" xfId="7"/>
+    <cellStyle name="Comma 3" xfId="11"/>
+    <cellStyle name="Comma 5" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal_OnlyRate Analyses(For Help)" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal_Rate Analysis - TATA HO  12-05-10" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="Normal 2 3" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="10"/>
+    <cellStyle name="Normal_OnlyRate Analyses(For Help)" xfId="3"/>
+    <cellStyle name="Normal_Rate Analysis - TATA HO  12-05-10" xfId="5"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,9 +484,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -526,7 +524,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -560,7 +558,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -595,10 +592,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -771,17 +767,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
@@ -796,12 +792,12 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="15.75">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <v>45411</v>
+        <v>45419</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -811,8 +807,8 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
+      <c r="A2" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -824,12 +820,12 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.75">
+      <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -839,221 +835,221 @@
       <c r="H3" s="5"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="5"/>
       <c r="I4" s="8"/>
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="15.75">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="36" t="s">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="15.75">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="15">
+      <c r="A8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="111" customHeight="1">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="C10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="18">
+        <v>4</v>
+      </c>
+      <c r="F10" s="18">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18">
+        <v>12744</v>
+      </c>
+      <c r="H10" s="18">
+        <f>F10*G10</f>
+        <v>50976</v>
+      </c>
+      <c r="I10" s="43">
+        <f>H10</f>
+        <v>50976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="18">
+        <v>4</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4</v>
+      </c>
+      <c r="G11" s="18">
+        <v>11469</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" ref="H11:H15" si="0">F11*G11</f>
+        <v>45876</v>
+      </c>
+      <c r="I11" s="43">
+        <f t="shared" ref="I11:I15" si="1">H11</f>
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2</v>
+      </c>
+      <c r="G12" s="18">
+        <v>7434</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>14868</v>
+      </c>
+      <c r="I12" s="43">
+        <f t="shared" si="1"/>
+        <v>14868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1440</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1440</v>
-      </c>
-      <c r="G10" s="18">
-        <v>40</v>
-      </c>
-      <c r="H10" s="41">
-        <f>F10*G10</f>
-        <v>57600</v>
-      </c>
-      <c r="I10" s="42">
-        <f>H10</f>
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1296</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1296</v>
-      </c>
-      <c r="G11" s="18">
-        <v>40</v>
-      </c>
-      <c r="H11" s="41">
-        <f t="shared" ref="H11:H17" si="0">F11*G11</f>
-        <v>51840</v>
-      </c>
-      <c r="I11" s="42">
-        <f t="shared" ref="I11:I17" si="1">H11</f>
-        <v>51840</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="18">
-        <v>420</v>
-      </c>
-      <c r="F12" s="18">
-        <v>420</v>
-      </c>
-      <c r="G12" s="18">
-        <v>40</v>
-      </c>
-      <c r="H12" s="41">
+      <c r="C13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>13381</v>
+      </c>
+      <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>16800</v>
-      </c>
-      <c r="I12" s="42">
+        <v>26762</v>
+      </c>
+      <c r="I13" s="43">
         <f t="shared" si="1"/>
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="18">
-        <v>756</v>
-      </c>
-      <c r="F13" s="18">
-        <v>756</v>
-      </c>
-      <c r="G13" s="18">
-        <v>40</v>
-      </c>
-      <c r="H13" s="41">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="I13" s="42">
-        <f t="shared" si="1"/>
-        <v>30240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="57.75" customHeight="1">
       <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>30</v>
+      <c r="B14" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="18">
         <v>180</v>
@@ -1062,26 +1058,26 @@
         <v>180</v>
       </c>
       <c r="G14" s="18">
-        <v>850</v>
-      </c>
-      <c r="H14" s="41">
+        <v>560.5</v>
+      </c>
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>153000</v>
-      </c>
-      <c r="I14" s="42">
+        <v>100890</v>
+      </c>
+      <c r="I14" s="43">
         <f t="shared" si="1"/>
-        <v>153000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="57.75" customHeight="1">
       <c r="A15" s="18">
-        <v>3</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="18">
         <v>6</v>
@@ -1089,224 +1085,412 @@
       <c r="F15" s="18">
         <v>6</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="18">
         <v>30000</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="18">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="43">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>4</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="18">
-        <v>6</v>
-      </c>
-      <c r="F16" s="18">
-        <v>6</v>
-      </c>
-      <c r="G16" s="41">
-        <v>35000</v>
-      </c>
-      <c r="H16" s="41">
-        <f t="shared" si="0"/>
-        <v>210000</v>
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="16">
+        <f>SUM(H10:H15)</f>
+        <v>419372</v>
       </c>
       <c r="I16" s="42">
-        <f t="shared" si="1"/>
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>5</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="18">
-        <v>6</v>
-      </c>
-      <c r="F17" s="18">
-        <v>6</v>
-      </c>
-      <c r="G17" s="41">
-        <v>20000</v>
-      </c>
-      <c r="H17" s="41">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I17" s="42">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(I10:I15)</f>
+        <v>419372</v>
+      </c>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="42"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="15">
       <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="16">
-        <f>SUM(H10:H17)</f>
-        <v>819480</v>
-      </c>
-      <c r="I18" s="40">
-        <f>SUM(I10:I17)</f>
-        <v>819480</v>
-      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="42"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="78.75">
+      <c r="A19" s="14"/>
+      <c r="B19" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="42"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B20" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="18">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18">
+        <v>4</v>
+      </c>
+      <c r="G20" s="18">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="18">
+        <f>F20*G20</f>
+        <v>10000</v>
+      </c>
+      <c r="I20" s="43">
+        <f>H20</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="18">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" ref="H21:H26" si="2">F21*G21</f>
+        <v>10000</v>
+      </c>
+      <c r="I21" s="43">
+        <f t="shared" ref="I21:I26" si="3">H21</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B22" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+      <c r="G22" s="18">
+        <v>2500</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I22" s="43">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B23" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>2</v>
+      </c>
+      <c r="G23" s="18">
+        <v>2500</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I23" s="43">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B24" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="18">
+        <v>180</v>
+      </c>
+      <c r="F24" s="18">
+        <v>180</v>
+      </c>
+      <c r="G24" s="18">
+        <v>35</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="2"/>
+        <v>6300</v>
+      </c>
+      <c r="I24" s="43">
+        <f t="shared" si="3"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B25" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="18">
+        <v>6</v>
+      </c>
+      <c r="F25" s="18">
+        <v>6</v>
+      </c>
+      <c r="G25" s="18">
+        <v>36000</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="2"/>
+        <v>216000</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="3"/>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B26" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="18">
+        <v>6</v>
+      </c>
+      <c r="F26" s="18">
+        <v>6</v>
+      </c>
+      <c r="G26" s="18">
+        <v>24500</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="2"/>
+        <v>147000</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="3"/>
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="54" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="16">
+        <f>SUM(H20:H27)</f>
+        <v>399300</v>
+      </c>
+      <c r="I28" s="42">
+        <f>I16+H28</f>
+        <v>818672</v>
+      </c>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="15">
+      <c r="A29" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B29" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C29" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D29" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53" t="s">
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I29" s="47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="11" t="s">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="15">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23" t="s">
+      <c r="G30" s="48"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="1:11" s="6" customFormat="1" ht="15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44">
-        <f>I18</f>
-        <v>819480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="29">
+        <f>I28</f>
+        <v>818672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="45">
-        <f>I23</f>
-        <v>819480</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="29">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="41">
+        <f>I33</f>
+        <v>818672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A35" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="30">
         <v>0.1</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="44">
-        <f>I24*D25</f>
-        <v>81948</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="29">
+        <f>I34*D35</f>
+        <v>81867.200000000012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="35" customFormat="1" ht="24" customHeight="1">
+      <c r="A36" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48">
-        <f>I24+I25</f>
-        <v>901428</v>
-      </c>
-      <c r="J26" s="33"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="29">
+        <f>I34+I35</f>
+        <v>900539.2</v>
+      </c>
+      <c r="J36" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1320,17 +1504,17 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.37" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Running projects/Trifit T1 Karachi/R.A - Tri Fit HRV installation.xlsx
+++ b/Running projects/Trifit T1 Karachi/R.A - Tri Fit HRV installation.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD3AB1-32E5-46DD-9189-7BE7B7B0DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet 1'!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet 1'!$A$1:$I$40</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Dated:</t>
   </si>
@@ -137,19 +143,37 @@
   </si>
   <si>
     <t>Supply  of Hanging and Support/anchor bolt angle bracket with rubber isolator.</t>
+  </si>
+  <si>
+    <t>Supply of  14 SWG G.I sheet metal duct with gas kits, nut bolts, complete in all respects ready to operate.size are</t>
+  </si>
+  <si>
+    <t>sqft</t>
+  </si>
+  <si>
+    <t>Supply of duct insulation XLP</t>
+  </si>
+  <si>
+    <t>Installation of  14 SWG G.I sheet metal duct with gas kits, nut bolts, complete in all respects.</t>
+  </si>
+  <si>
+    <t>Installation of duct insulation XLP</t>
+  </si>
+  <si>
+    <t>Sqft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -302,19 +326,19 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -323,7 +347,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -336,9 +360,9 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,10 +374,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -368,30 +392,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,7 +415,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -412,13 +427,19 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -431,7 +452,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -446,28 +467,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="6"/>
-    <cellStyle name="Comma 2 2" xfId="7"/>
-    <cellStyle name="Comma 3" xfId="11"/>
-    <cellStyle name="Comma 5" xfId="4"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Normal 2 3" xfId="9"/>
-    <cellStyle name="Normal 3" xfId="10"/>
-    <cellStyle name="Normal_OnlyRate Analyses(For Help)" xfId="3"/>
-    <cellStyle name="Normal_Rate Analysis - TATA HO  12-05-10" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal_OnlyRate Analyses(For Help)" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal_Rate Analysis - TATA HO  12-05-10" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,9 +511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -524,7 +551,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -558,6 +585,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -592,9 +620,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -767,17 +796,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
@@ -792,12 +821,12 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <v>45419</v>
+        <v>45425</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -807,8 +836,8 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -820,8 +849,8 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -835,105 +864,105 @@
       <c r="H3" s="5"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="13.5" customHeight="1">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="5"/>
       <c r="I4" s="8"/>
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="37" t="s">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="15">
-      <c r="A8" s="44" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="111" customHeight="1">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -952,16 +981,16 @@
         <f>F10*G10</f>
         <v>50976</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="40">
         <f>H10</f>
         <v>50976</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -977,19 +1006,19 @@
         <v>11469</v>
       </c>
       <c r="H11" s="18">
-        <f t="shared" ref="H11:H15" si="0">F11*G11</f>
+        <f t="shared" ref="H11:H17" si="0">F11*G11</f>
         <v>45876</v>
       </c>
-      <c r="I11" s="43">
-        <f t="shared" ref="I11:I15" si="1">H11</f>
+      <c r="I11" s="40">
+        <f t="shared" ref="I11:I17" si="1">H11</f>
         <v>45876</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -1008,16 +1037,16 @@
         <f t="shared" si="0"/>
         <v>14868</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="40">
         <f t="shared" si="1"/>
         <v>14868</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -1036,16 +1065,16 @@
         <f t="shared" si="0"/>
         <v>26762</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="40">
         <f t="shared" si="1"/>
         <v>26762</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="57.75" customHeight="1">
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1064,433 +1093,568 @@
         <f t="shared" si="0"/>
         <v>100890</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="40">
         <f t="shared" si="1"/>
         <v>100890</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="57.75" customHeight="1">
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D15" s="18">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="F15" s="18">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="G15" s="18">
-        <v>30000</v>
+        <v>240</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="I15" s="40">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="18">
+        <v>516.48</v>
+      </c>
+      <c r="F16" s="18">
+        <v>516.48</v>
+      </c>
+      <c r="G16" s="18">
+        <v>224.2</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>115794.81599999999</v>
+      </c>
+      <c r="I16" s="40">
+        <f t="shared" si="1"/>
+        <v>115794.81599999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="18">
+        <v>6</v>
+      </c>
+      <c r="F17" s="18">
+        <v>6</v>
+      </c>
+      <c r="G17" s="18">
+        <v>30000</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I17" s="40">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="16">
-        <f>SUM(H10:H15)</f>
-        <v>419372</v>
-      </c>
-      <c r="I16" s="42">
-        <f>SUM(I10:I15)</f>
-        <v>419372</v>
-      </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="42"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="15">
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="42"/>
+      <c r="H18" s="16">
+        <f>SUM(H10:H17)</f>
+        <v>595166.81599999999</v>
+      </c>
+      <c r="I18" s="39">
+        <f>SUM(I10:I17)</f>
+        <v>595166.81599999999</v>
+      </c>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="78.75">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="55" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="42"/>
+      <c r="I19" s="39"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B20" s="39" t="s">
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="39"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>1</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="39"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>2</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="18">
-        <v>4</v>
-      </c>
-      <c r="F20" s="18">
-        <v>4</v>
-      </c>
-      <c r="G20" s="18">
-        <v>2500</v>
-      </c>
-      <c r="H20" s="18">
-        <f>F20*G20</f>
-        <v>10000</v>
-      </c>
-      <c r="I20" s="43">
-        <f>H20</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B21" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="18">
-        <v>4</v>
-      </c>
-      <c r="F21" s="18">
-        <v>4</v>
-      </c>
-      <c r="G21" s="18">
-        <v>2500</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" ref="H21:H26" si="2">F21*G21</f>
-        <v>10000</v>
-      </c>
-      <c r="I21" s="43">
-        <f t="shared" ref="I21:I26" si="3">H21</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B22" s="39" t="s">
-        <v>27</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="18">
         <v>2500</v>
       </c>
       <c r="H22" s="18">
+        <f>F22*G22</f>
+        <v>10000</v>
+      </c>
+      <c r="I22" s="40">
+        <f>H22</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>3</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="18">
+        <v>4</v>
+      </c>
+      <c r="F23" s="18">
+        <v>4</v>
+      </c>
+      <c r="G23" s="18">
+        <v>2500</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" ref="H23:H30" si="2">F23*G23</f>
+        <v>10000</v>
+      </c>
+      <c r="I23" s="40">
+        <f t="shared" ref="I23:I30" si="3">H23</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>4</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2</v>
+      </c>
+      <c r="G24" s="18">
+        <v>2500</v>
+      </c>
+      <c r="H24" s="18">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I24" s="40">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B23" s="39" t="s">
+    <row r="25" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>5</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F25" s="18">
         <v>2</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G25" s="18">
         <v>2500</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H25" s="18">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I25" s="40">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B24" s="39" t="s">
+    <row r="26" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>6</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D26" s="18">
         <v>180</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F26" s="18">
         <v>180</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G26" s="18">
         <v>35</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H26" s="18">
         <f t="shared" si="2"/>
         <v>6300</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I26" s="40">
         <f t="shared" si="3"/>
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B25" s="39" t="s">
+    <row r="27" spans="1:11" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>7</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="18">
+        <v>250</v>
+      </c>
+      <c r="F27" s="18">
+        <v>250</v>
+      </c>
+      <c r="G27" s="18">
+        <v>100</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="I27" s="40">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>8</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="18">
+        <v>516.48</v>
+      </c>
+      <c r="F28" s="18">
+        <v>516.48</v>
+      </c>
+      <c r="G28" s="18">
+        <v>45</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="2"/>
+        <v>23241.600000000002</v>
+      </c>
+      <c r="I28" s="40">
+        <f t="shared" si="3"/>
+        <v>23241.600000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>9</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D29" s="18">
         <v>6</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F29" s="18">
         <v>6</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G29" s="18">
         <v>36000</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H29" s="18">
         <f t="shared" si="2"/>
         <v>216000</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I29" s="40">
         <f t="shared" si="3"/>
         <v>216000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B26" s="39" t="s">
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>10</v>
+      </c>
+      <c r="B30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D30" s="18">
         <v>6</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F30" s="18">
         <v>6</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G30" s="18">
         <v>24500</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H30" s="18">
         <f t="shared" si="2"/>
         <v>147000</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I30" s="40">
         <f t="shared" si="3"/>
         <v>147000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="43"/>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="16">
-        <f>SUM(H20:H27)</f>
-        <v>399300</v>
-      </c>
-      <c r="I28" s="42">
-        <f>I16+H28</f>
-        <v>818672</v>
-      </c>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="15">
-      <c r="A29" s="47" t="s">
+    <row r="31" spans="1:11" s="41" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="16">
+        <f>SUM(H22:H31)</f>
+        <v>447541.6</v>
+      </c>
+      <c r="I32" s="39">
+        <f>I18+H32</f>
+        <v>1042708.416</v>
+      </c>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B33" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C33" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D33" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="I33" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="15">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="11" t="s">
+    <row r="34" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" ht="15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="15">
-      <c r="A32" s="19"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="23" t="s">
+      <c r="G34" s="47"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="29">
-        <f>I28</f>
-        <v>818672</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="29">
+        <f>I32</f>
+        <v>1042708.416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="41">
-        <f>I33</f>
-        <v>818672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A35" s="45" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="38">
+        <f>I37</f>
+        <v>1042708.416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="30">
+      <c r="B39" s="44"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="30">
         <v>0.1</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="29">
-        <f>I34*D35</f>
-        <v>81867.200000000012</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="A36" s="46" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="29">
+        <f>I38*D39</f>
+        <v>104270.8416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="29">
-        <f>I34+I35</f>
-        <v>900539.2</v>
-      </c>
-      <c r="J36" s="34"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56">
+        <f>I38+I39</f>
+        <v>1146979.2575999999</v>
+      </c>
+      <c r="J40" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1504,14 +1668,14 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.37" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
